--- a/data/trans_orig/P0902-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P0902-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>52910</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40748</v>
+        <v>41656</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>66498</v>
+        <v>68617</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07623815602546055</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05871300393365906</v>
+        <v>0.06002184075293655</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09581738052109501</v>
+        <v>0.09887006753624751</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>73</v>
@@ -765,19 +765,19 @@
         <v>71823</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>56855</v>
+        <v>56179</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>87810</v>
+        <v>87849</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1043403433273571</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08259628134451269</v>
+        <v>0.08161383313158944</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1275650721401442</v>
+        <v>0.1276218862268614</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>127</v>
@@ -786,19 +786,19 @@
         <v>124733</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>104977</v>
+        <v>103191</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>149787</v>
+        <v>145780</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09023170719725525</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07594044182657243</v>
+        <v>0.0746484001442341</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1083556897334166</v>
+        <v>0.1054573116825908</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>641102</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>627514</v>
+        <v>625395</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>653264</v>
+        <v>652356</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9237618439745394</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.904182619478905</v>
+        <v>0.9011299324637524</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9412869960663409</v>
+        <v>0.9399781592470634</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>623</v>
@@ -836,19 +836,19 @@
         <v>616528</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>600541</v>
+        <v>600502</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>631496</v>
+        <v>632172</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8956596566726429</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8724349278598559</v>
+        <v>0.8723781137731389</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9174037186554873</v>
+        <v>0.9183861668684106</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1252</v>
@@ -857,19 +857,19 @@
         <v>1257630</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1232576</v>
+        <v>1236583</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1277386</v>
+        <v>1279172</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9097682928027447</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8916443102665834</v>
+        <v>0.8945426883174091</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9240595581734274</v>
+        <v>0.9253515998557654</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>78444</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>62696</v>
+        <v>63200</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>96631</v>
+        <v>95842</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08155942765804532</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06518660425197194</v>
+        <v>0.06571007776490184</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1004690045853621</v>
+        <v>0.09964839349257378</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>120</v>
@@ -982,19 +982,19 @@
         <v>131014</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>110044</v>
+        <v>110282</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>154627</v>
+        <v>154422</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1352900927806871</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.113635615821686</v>
+        <v>0.1138811741472344</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.159673955754213</v>
+        <v>0.1594623209693507</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>196</v>
@@ -1003,19 +1003,19 @@
         <v>209458</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>183507</v>
+        <v>183703</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>236260</v>
+        <v>240522</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1085165254222533</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09507203240463723</v>
+        <v>0.09517355621494455</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1224024462344532</v>
+        <v>0.1246104002269992</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>883356</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>865169</v>
+        <v>865958</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>899104</v>
+        <v>898600</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9184405723419546</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8995309954146387</v>
+        <v>0.9003516065074263</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9348133957480288</v>
+        <v>0.9342899222350983</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>788</v>
@@ -1053,19 +1053,19 @@
         <v>837379</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>813766</v>
+        <v>813971</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>858349</v>
+        <v>858111</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8647099072193128</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8403260442457869</v>
+        <v>0.840537679030649</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.886364384178314</v>
+        <v>0.8861188258527656</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1608</v>
@@ -1074,19 +1074,19 @@
         <v>1720735</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1693933</v>
+        <v>1689671</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1746686</v>
+        <v>1746490</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8914834745777468</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8775975537655469</v>
+        <v>0.8753895997730006</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9049279675953628</v>
+        <v>0.9048264437850554</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>60084</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46224</v>
+        <v>45377</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>76836</v>
+        <v>75627</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08855307176588602</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0681265718573897</v>
+        <v>0.06687799620737755</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1132417099054101</v>
+        <v>0.1114612138870692</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>115</v>
@@ -1199,19 +1199,19 @@
         <v>114677</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>96379</v>
+        <v>96098</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>136201</v>
+        <v>135655</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1676959030247871</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1409376944052483</v>
+        <v>0.1405264462544127</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.19917079745582</v>
+        <v>0.1983721430897366</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>173</v>
@@ -1220,19 +1220,19 @@
         <v>174761</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>150237</v>
+        <v>149642</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>200856</v>
+        <v>200899</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1282793665316087</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1102774719293111</v>
+        <v>0.1098409845506113</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1474334941993736</v>
+        <v>0.1474649170613792</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>618425</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>601673</v>
+        <v>602882</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>632285</v>
+        <v>633132</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.911446928234114</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8867582900945895</v>
+        <v>0.8885387861129307</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9318734281426103</v>
+        <v>0.9331220037926222</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>581</v>
@@ -1270,19 +1270,19 @@
         <v>569164</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>547640</v>
+        <v>548186</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>587462</v>
+        <v>587743</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8323040969752129</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8008292025441799</v>
+        <v>0.8016278569102634</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8590623055947515</v>
+        <v>0.8594735537455872</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1164</v>
@@ -1291,19 +1291,19 @@
         <v>1187589</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1161494</v>
+        <v>1161451</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1212113</v>
+        <v>1212708</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8717206334683912</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8525665058006264</v>
+        <v>0.8525350829386207</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8897225280706889</v>
+        <v>0.8901590154493886</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>76000</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>60223</v>
+        <v>61167</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>92676</v>
+        <v>93207</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08066059358198602</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06391626266124183</v>
+        <v>0.06491817001285551</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09835942469313032</v>
+        <v>0.09892253609456171</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>166</v>
@@ -1416,19 +1416,19 @@
         <v>176153</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>151239</v>
+        <v>151865</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>201283</v>
+        <v>201975</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1696044635487783</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1456163090804591</v>
+        <v>0.1462187785821894</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1938002326239934</v>
+        <v>0.1944662627761431</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>249</v>
@@ -1437,19 +1437,19 @@
         <v>252153</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>224606</v>
+        <v>223432</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>285189</v>
+        <v>284416</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1272965894818319</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1133898086779707</v>
+        <v>0.1127968035229487</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1439743635408363</v>
+        <v>0.1435839552262461</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>866222</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>849546</v>
+        <v>849015</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>881999</v>
+        <v>881055</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.919339406418014</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9016405753068697</v>
+        <v>0.901077463905438</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9360837373387582</v>
+        <v>0.9350818299871444</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>831</v>
@@ -1487,19 +1487,19 @@
         <v>862459</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>837329</v>
+        <v>836637</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>887373</v>
+        <v>886747</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8303955364512218</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.806199767376007</v>
+        <v>0.805533737223857</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8543836909195408</v>
+        <v>0.8537812214178107</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1742</v>
@@ -1508,19 +1508,19 @@
         <v>1728681</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1695645</v>
+        <v>1696418</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1756228</v>
+        <v>1757402</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.872703410518168</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8560256364591637</v>
+        <v>0.8564160447737541</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8866101913220293</v>
+        <v>0.8872031964770514</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>267438</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>236604</v>
+        <v>233482</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>300809</v>
+        <v>297001</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08162209187508913</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0722116170627532</v>
+        <v>0.07125861352706866</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09180680694019218</v>
+        <v>0.09064470691812312</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>474</v>
@@ -1633,19 +1633,19 @@
         <v>493667</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>451783</v>
+        <v>458020</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>534499</v>
+        <v>541117</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1460901285196373</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1336954076318706</v>
+        <v>0.1355410033041544</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.158173292165208</v>
+        <v>0.1601318938960184</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>745</v>
@@ -1654,19 +1654,19 @@
         <v>761106</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>709601</v>
+        <v>711257</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>813398</v>
+        <v>815127</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1143532675669832</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1066149283771311</v>
+        <v>0.1068637554077966</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1222099308664998</v>
+        <v>0.1224697837226158</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3009105</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2975734</v>
+        <v>2979542</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3039939</v>
+        <v>3043061</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9183779081249108</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9081931930598077</v>
+        <v>0.9093552930818768</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9277883829372469</v>
+        <v>0.9287413864729308</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2823</v>
@@ -1704,19 +1704,19 @@
         <v>2885530</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2844698</v>
+        <v>2838080</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2927414</v>
+        <v>2921177</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8539098714803627</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8418267078347923</v>
+        <v>0.8398681061039814</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8663045923681294</v>
+        <v>0.8644589966958456</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5766</v>
@@ -1725,19 +1725,19 @@
         <v>5894635</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5842343</v>
+        <v>5840614</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5946140</v>
+        <v>5944484</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8856467324330168</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8777900691335001</v>
+        <v>0.8775302162773841</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8933850716228688</v>
+        <v>0.8931362445922035</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>84742</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>67210</v>
+        <v>66054</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>103122</v>
+        <v>104434</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1204625039030721</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09554119882707428</v>
+        <v>0.09389759282274279</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1465905085957165</v>
+        <v>0.1484563367740394</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>137</v>
@@ -2090,19 +2090,19 @@
         <v>146018</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>124670</v>
+        <v>125767</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>169491</v>
+        <v>169399</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2094793153540664</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1788531609228232</v>
+        <v>0.1804271012393108</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2431549123057022</v>
+        <v>0.2430230564424723</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>217</v>
@@ -2111,19 +2111,19 @@
         <v>230759</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>202607</v>
+        <v>205312</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>260204</v>
+        <v>259484</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1647669148605033</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1446655169671275</v>
+        <v>0.146597320786485</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1857912221669137</v>
+        <v>0.1852772538083534</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>618727</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>600347</v>
+        <v>599035</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>636259</v>
+        <v>637415</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8795374960969279</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8534094914042835</v>
+        <v>0.8515436632259606</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9044588011729257</v>
+        <v>0.9061024071772572</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>513</v>
@@ -2161,19 +2161,19 @@
         <v>551032</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>527559</v>
+        <v>527651</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>572380</v>
+        <v>571283</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7905206846459336</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7568450876942978</v>
+        <v>0.7569769435575278</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8211468390771768</v>
+        <v>0.8195728987606892</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1107</v>
@@ -2182,19 +2182,19 @@
         <v>1169760</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1140315</v>
+        <v>1141035</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1197912</v>
+        <v>1195207</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8352330851394967</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8142087778330869</v>
+        <v>0.8147227461916466</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8553344830328728</v>
+        <v>0.8534026792135162</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>120733</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>100265</v>
+        <v>99798</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>141917</v>
+        <v>143259</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1187121101056255</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09858644504250859</v>
+        <v>0.0981272756154843</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.139541166786837</v>
+        <v>0.1408609458039957</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>207</v>
@@ -2307,19 +2307,19 @@
         <v>228348</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>200723</v>
+        <v>199097</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>256711</v>
+        <v>254173</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.221455949347402</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1946652410638154</v>
+        <v>0.1930882872763666</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2489631943777618</v>
+        <v>0.2465022561706575</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>317</v>
@@ -2328,19 +2328,19 @@
         <v>349081</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>316260</v>
+        <v>316516</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>384503</v>
+        <v>383277</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.170437515649163</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1544126136543437</v>
+        <v>0.1545379802628981</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1877323843151635</v>
+        <v>0.187133785345492</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>896294</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>875110</v>
+        <v>873768</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>916762</v>
+        <v>917229</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8812878898943745</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.860458833213163</v>
+        <v>0.8591390541960042</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9014135549574914</v>
+        <v>0.9018727243845157</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>732</v>
@@ -2378,19 +2378,19 @@
         <v>802772</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>774409</v>
+        <v>776947</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>830397</v>
+        <v>832023</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.778544050652598</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7510368056222384</v>
+        <v>0.7534977438293424</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8053347589361849</v>
+        <v>0.8069117127236336</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1557</v>
@@ -2399,19 +2399,19 @@
         <v>1699065</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1663643</v>
+        <v>1664869</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1731886</v>
+        <v>1731630</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.829562484350837</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8122676156848365</v>
+        <v>0.812866214654508</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8455873863456563</v>
+        <v>0.8454620197371019</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>65966</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>51938</v>
+        <v>51301</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>86200</v>
+        <v>85809</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08706936243155257</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06855380388663661</v>
+        <v>0.06771310920034358</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1137768273109895</v>
+        <v>0.1132604037811417</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>124</v>
@@ -2524,19 +2524,19 @@
         <v>135453</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>114724</v>
+        <v>115761</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>157702</v>
+        <v>157649</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1747185880610581</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1479811135453037</v>
+        <v>0.149318433808645</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2034171206964004</v>
+        <v>0.2033497866618031</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>181</v>
@@ -2545,19 +2545,19 @@
         <v>201418</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>173964</v>
+        <v>175671</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>229134</v>
+        <v>229992</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1313982453241341</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1134877385206272</v>
+        <v>0.1146012458343401</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1494792387800981</v>
+        <v>0.1500388017726275</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>691657</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>671423</v>
+        <v>671814</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>705685</v>
+        <v>706322</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9129306375684474</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8862231726890102</v>
+        <v>0.8867395962188582</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9314461961133633</v>
+        <v>0.9322868907996562</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>580</v>
@@ -2595,19 +2595,19 @@
         <v>639809</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>617560</v>
+        <v>617613</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>660538</v>
+        <v>659501</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8252814119389419</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7965828793035997</v>
+        <v>0.7966502133381973</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8520188864546964</v>
+        <v>0.850681566191355</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1212</v>
@@ -2616,19 +2616,19 @@
         <v>1331467</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1303751</v>
+        <v>1302893</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1358921</v>
+        <v>1357214</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8686017546758659</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8505207612199019</v>
+        <v>0.8499611982273719</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8865122614793729</v>
+        <v>0.8853987541656598</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>105080</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>86389</v>
+        <v>86888</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>127074</v>
+        <v>126843</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1108749322326929</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09115246022863513</v>
+        <v>0.09167915875467426</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.134081618194118</v>
+        <v>0.1338376458516099</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>191</v>
@@ -2741,19 +2741,19 @@
         <v>200345</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>175904</v>
+        <v>174450</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>227759</v>
+        <v>227838</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1906353980668465</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1673792682216924</v>
+        <v>0.1659957565234061</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2167209566639322</v>
+        <v>0.2167956699750497</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>287</v>
@@ -2762,19 +2762,19 @@
         <v>305425</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>271034</v>
+        <v>275202</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>337179</v>
+        <v>341168</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1528142104470632</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1356072415027135</v>
+        <v>0.1376924425654922</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1687014735863609</v>
+        <v>0.1706971816114092</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>842659</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>820665</v>
+        <v>820896</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>861350</v>
+        <v>860851</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8891250677673072</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8659183818058819</v>
+        <v>0.8661623541483898</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9088475397713649</v>
+        <v>0.9083208412453256</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>811</v>
@@ -2812,19 +2812,19 @@
         <v>850587</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>823173</v>
+        <v>823094</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>875028</v>
+        <v>876482</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8093646019331535</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7832790433360682</v>
+        <v>0.7832043300249505</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8326207317783078</v>
+        <v>0.834004243476594</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1625</v>
@@ -2833,19 +2833,19 @@
         <v>1693247</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1661493</v>
+        <v>1657504</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1727638</v>
+        <v>1723470</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8471857895529368</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8312985264136391</v>
+        <v>0.8293028183885909</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8643927584972865</v>
+        <v>0.8623075574345078</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>376521</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>337422</v>
+        <v>338987</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>415907</v>
+        <v>415010</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1099056926112186</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09849274325348616</v>
+        <v>0.09894960269887848</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1214023683195498</v>
+        <v>0.121140322118327</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>659</v>
@@ -2958,19 +2958,19 @@
         <v>710163</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>667240</v>
+        <v>661490</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>760759</v>
+        <v>757789</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1998002285039061</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1877240959877323</v>
+        <v>0.1861066158704865</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.214035376244288</v>
+        <v>0.2131996717722293</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1002</v>
@@ -2979,19 +2979,19 @@
         <v>1086684</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1025021</v>
+        <v>1024864</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1151536</v>
+        <v>1149353</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1556804355326606</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1468464836656466</v>
+        <v>0.1468240236114814</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.164971292363422</v>
+        <v>0.1646585147154178</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3049337</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3009951</v>
+        <v>3010848</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3088436</v>
+        <v>3086871</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8900943073887814</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8785976316804502</v>
+        <v>0.8788596778816731</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9015072567465139</v>
+        <v>0.9010503973011216</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2636</v>
@@ -3029,19 +3029,19 @@
         <v>2844200</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2793604</v>
+        <v>2796574</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2887123</v>
+        <v>2892873</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8001997714960939</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.785964623755712</v>
+        <v>0.7868003282277706</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8122759040122677</v>
+        <v>0.8138933841295135</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5501</v>
@@ -3050,19 +3050,19 @@
         <v>5893538</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5828686</v>
+        <v>5830869</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5955201</v>
+        <v>5955358</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8443195644673394</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.835028707636578</v>
+        <v>0.8353414852845822</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8531535163343534</v>
+        <v>0.8531759763885186</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>76593</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>61363</v>
+        <v>61586</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>95805</v>
+        <v>96044</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1135054363379942</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0909347243886012</v>
+        <v>0.09126628562579307</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1419753463013271</v>
+        <v>0.1423302421664231</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>140</v>
@@ -3415,19 +3415,19 @@
         <v>151771</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>129833</v>
+        <v>131200</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>173860</v>
+        <v>175590</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2255677607389899</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1929634650720725</v>
+        <v>0.1949942398546042</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.258397989982709</v>
+        <v>0.2609689963711066</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>216</v>
@@ -3436,19 +3436,19 @@
         <v>228364</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>205483</v>
+        <v>199577</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>260278</v>
+        <v>254888</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1694550654139672</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1524761683074654</v>
+        <v>0.1480937062589772</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1931359623094019</v>
+        <v>0.1891364548426066</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>598207</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>578995</v>
+        <v>578756</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>613437</v>
+        <v>613214</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8864945636620057</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.858024653698673</v>
+        <v>0.8576697578335769</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9090652756113988</v>
+        <v>0.9087337143742071</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>526</v>
@@ -3486,19 +3486,19 @@
         <v>521068</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>498979</v>
+        <v>497249</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>543006</v>
+        <v>541639</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.77443223926101</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7416020100172909</v>
+        <v>0.7390310036288933</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8070365349279274</v>
+        <v>0.8050057601453957</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1102</v>
@@ -3507,19 +3507,19 @@
         <v>1119275</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1087361</v>
+        <v>1092751</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1142156</v>
+        <v>1148062</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8305449345860327</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8068640376905989</v>
+        <v>0.8108635451573935</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8475238316925348</v>
+        <v>0.8519062937410226</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>92251</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>74426</v>
+        <v>74118</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>111935</v>
+        <v>111513</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09022701978800401</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07279351680052301</v>
+        <v>0.07249199790971206</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1094788229006577</v>
+        <v>0.1090661336099658</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>147</v>
@@ -3632,19 +3632,19 @@
         <v>172975</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>149097</v>
+        <v>147297</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>197713</v>
+        <v>200824</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.165857373919118</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1429618491404599</v>
+        <v>0.1412356967837092</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1895778128883075</v>
+        <v>0.1925607022434137</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>238</v>
@@ -3653,19 +3653,19 @@
         <v>265226</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>234116</v>
+        <v>235905</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>297145</v>
+        <v>301587</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1284172098508441</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1133546219284885</v>
+        <v>0.1142205977536681</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1438717874893499</v>
+        <v>0.1460225383337244</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>930180</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>910496</v>
+        <v>910918</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>948005</v>
+        <v>948313</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9097729802119959</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8905211770993424</v>
+        <v>0.890933866390034</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9272064831994771</v>
+        <v>0.9275080020902873</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>830</v>
@@ -3703,19 +3703,19 @@
         <v>869938</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>845200</v>
+        <v>842089</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>893816</v>
+        <v>895616</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.834142626080882</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8104221871116926</v>
+        <v>0.8074392977565863</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8570381508595402</v>
+        <v>0.8587643032162908</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1690</v>
@@ -3724,19 +3724,19 @@
         <v>1800118</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1768199</v>
+        <v>1763757</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1831228</v>
+        <v>1829439</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8715827901491559</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8561282125106503</v>
+        <v>0.8539774616662755</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8866453780715116</v>
+        <v>0.8857794022463319</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>54909</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>41091</v>
+        <v>41600</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>71236</v>
+        <v>71933</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07229183610973387</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05409839004365641</v>
+        <v>0.05476931266958607</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09378695037061262</v>
+        <v>0.09470387231593254</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>110</v>
@@ -3849,19 +3849,19 @@
         <v>127244</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>107165</v>
+        <v>105583</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>153095</v>
+        <v>151064</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1620913611442655</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1365141884429681</v>
+        <v>0.1344988930094871</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1950227316251978</v>
+        <v>0.1924350902840884</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>162</v>
@@ -3870,19 +3870,19 @@
         <v>182153</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>156802</v>
+        <v>155949</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>209432</v>
+        <v>209493</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.117931669712497</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1015187413760871</v>
+        <v>0.1009662632247181</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1355927938041877</v>
+        <v>0.1356326592988663</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>704643</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>688316</v>
+        <v>687619</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>718461</v>
+        <v>717952</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9277081638902661</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9062130496293874</v>
+        <v>0.905296127684068</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9459016099563436</v>
+        <v>0.945230687330414</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>626</v>
@@ -3920,19 +3920,19 @@
         <v>657767</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>631916</v>
+        <v>633947</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>677846</v>
+        <v>679428</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8379086388557345</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8049772683748022</v>
+        <v>0.8075649097159117</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8634858115570327</v>
+        <v>0.8655011069905137</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1270</v>
@@ -3941,19 +3941,19 @@
         <v>1362410</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1335131</v>
+        <v>1335070</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1387761</v>
+        <v>1388614</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.882068330287503</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8644072061958122</v>
+        <v>0.8643673407011336</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8984812586239129</v>
+        <v>0.8990337367752819</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>90098</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>72038</v>
+        <v>73718</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>109804</v>
+        <v>109669</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09609731446499158</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07683523202518261</v>
+        <v>0.07862732369848392</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1171162364614611</v>
+        <v>0.1169723652707335</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>143</v>
@@ -4066,19 +4066,19 @@
         <v>175567</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>149825</v>
+        <v>151055</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>203602</v>
+        <v>200614</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.168203171549841</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1435409970701779</v>
+        <v>0.1447195859471764</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1950623736846823</v>
+        <v>0.1921994734670058</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>231</v>
@@ -4087,19 +4087,19 @@
         <v>265665</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>235487</v>
+        <v>233152</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>300898</v>
+        <v>295886</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1340828959170636</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1188519308342424</v>
+        <v>0.1176733726854382</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1518656391352907</v>
+        <v>0.1493356500948542</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>847469</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>827763</v>
+        <v>827898</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>865529</v>
+        <v>863849</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9039026855350084</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8828837635385389</v>
+        <v>0.8830276347292666</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9231647679748174</v>
+        <v>0.9213726763015161</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>816</v>
@@ -4137,19 +4137,19 @@
         <v>868212</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>840177</v>
+        <v>843165</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>893954</v>
+        <v>892724</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.831796828450159</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8049376263153184</v>
+        <v>0.8078005265329942</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8564590029298221</v>
+        <v>0.8552804140528236</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1660</v>
@@ -4158,19 +4158,19 @@
         <v>1715681</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1680448</v>
+        <v>1685460</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1745859</v>
+        <v>1748194</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8659171040829364</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8481343608647093</v>
+        <v>0.8506643499051458</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8811480691657576</v>
+        <v>0.8823266273145618</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>313851</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>279664</v>
+        <v>277423</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>343802</v>
+        <v>345535</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09246289939990208</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08239111143763561</v>
+        <v>0.08173079213719625</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1012864138932084</v>
+        <v>0.1017971627097236</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>540</v>
@@ -4283,19 +4283,19 @@
         <v>627556</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>578805</v>
+        <v>582925</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>675795</v>
+        <v>679826</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.177048554502724</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1632946993012803</v>
+        <v>0.1644571637175529</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1906580238612462</v>
+        <v>0.1917950354221123</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>847</v>
@@ -4304,19 +4304,19 @@
         <v>941407</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>882403</v>
+        <v>883215</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1003318</v>
+        <v>1001690</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1356711511267499</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1271677465372974</v>
+        <v>0.1272847776515448</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.14459346950129</v>
+        <v>0.1443587801942836</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3080499</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3050548</v>
+        <v>3048815</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3114686</v>
+        <v>3116927</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.907537100600098</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8987135861067912</v>
+        <v>0.8982028372902768</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9176088885623642</v>
+        <v>0.9182692078628039</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2798</v>
@@ -4354,19 +4354,19 @@
         <v>2916986</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2868747</v>
+        <v>2864716</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2965737</v>
+        <v>2961617</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8229514454972759</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8093419761387538</v>
+        <v>0.8082049645778877</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8367053006987196</v>
+        <v>0.8355428362824471</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5722</v>
@@ -4375,19 +4375,19 @@
         <v>5997485</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5935574</v>
+        <v>5937202</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6056489</v>
+        <v>6055677</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8643288488732501</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8554065304987094</v>
+        <v>0.8556412198057163</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8728322534627025</v>
+        <v>0.872715222348455</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>97235</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>79894</v>
+        <v>80212</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>116962</v>
+        <v>117720</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1408766243895138</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1157525866557159</v>
+        <v>0.1162132487902719</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1694566247982574</v>
+        <v>0.1705551170555933</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>275</v>
@@ -4740,19 +4740,19 @@
         <v>139934</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>125958</v>
+        <v>122689</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>156551</v>
+        <v>156747</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.191026959986917</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1719484097366444</v>
+        <v>0.1674864209152131</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2137113554874836</v>
+        <v>0.2139797669982004</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>388</v>
@@ -4761,19 +4761,19 @@
         <v>237169</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>212443</v>
+        <v>212062</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>265668</v>
+        <v>262476</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1666976048697485</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1493187108291069</v>
+        <v>0.1490506135223074</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1867285620309801</v>
+        <v>0.1844847721127685</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>592982</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>573255</v>
+        <v>572497</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>610323</v>
+        <v>610005</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8591233756104861</v>
+        <v>0.8591233756104864</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8305433752017429</v>
+        <v>0.8294448829444069</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8842474133442849</v>
+        <v>0.8837867512097283</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>963</v>
@@ -4811,19 +4811,19 @@
         <v>592600</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>575983</v>
+        <v>575787</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>606576</v>
+        <v>609845</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8089730400130832</v>
+        <v>0.8089730400130829</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7862886445125165</v>
+        <v>0.7860202330017997</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8280515902633557</v>
+        <v>0.8325135790847871</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1579</v>
@@ -4832,19 +4832,19 @@
         <v>1185582</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1157083</v>
+        <v>1160275</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1210308</v>
+        <v>1210689</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8333023951302515</v>
+        <v>0.8333023951302516</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8132714379690196</v>
+        <v>0.8155152278872313</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8506812891708929</v>
+        <v>0.8509493864776924</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>116869</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>96954</v>
+        <v>96559</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>138658</v>
+        <v>140251</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1115256509553325</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09252110885319074</v>
+        <v>0.09214443397180737</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1323177904693173</v>
+        <v>0.1338385770298528</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>336</v>
@@ -4957,19 +4957,19 @@
         <v>209143</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>191054</v>
+        <v>189863</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>231961</v>
+        <v>232848</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1955103893523817</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1786005919587657</v>
+        <v>0.1774870777430207</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2168407821296513</v>
+        <v>0.2176699502252278</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>459</v>
@@ -4978,19 +4978,19 @@
         <v>326012</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>295866</v>
+        <v>297157</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>355195</v>
+        <v>359991</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1539505926410958</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1397148310613933</v>
+        <v>0.1403241996231712</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1677310577474893</v>
+        <v>0.1699960333841548</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>931045</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>909256</v>
+        <v>907663</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>950960</v>
+        <v>951355</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8884743490446673</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8676822095306825</v>
+        <v>0.8661614229701469</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9074788911468092</v>
+        <v>0.9078555660281926</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1178</v>
@@ -5028,19 +5028,19 @@
         <v>860585</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>837767</v>
+        <v>836880</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>878674</v>
+        <v>879865</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8044896106476184</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7831592178703487</v>
+        <v>0.7823300497747723</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8213994080412345</v>
+        <v>0.822512922256979</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2018</v>
@@ -5049,19 +5049,19 @@
         <v>1791631</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1762448</v>
+        <v>1757652</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1821777</v>
+        <v>1820486</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8460494073589041</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8322689422525107</v>
+        <v>0.8300039666158449</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8602851689386065</v>
+        <v>0.8596758003768287</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>107238</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>86050</v>
+        <v>87425</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>126877</v>
+        <v>128554</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1335341777119025</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1071511536441347</v>
+        <v>0.108863154291328</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1579888541747745</v>
+        <v>0.1600771354979513</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>230</v>
@@ -5174,19 +5174,19 @@
         <v>153825</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>136511</v>
+        <v>134981</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>175490</v>
+        <v>174678</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1893795367328811</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1680628596475561</v>
+        <v>0.1661798143486929</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2160519550403531</v>
+        <v>0.2150515836078592</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>336</v>
@@ -5195,19 +5195,19 @@
         <v>261063</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>231883</v>
+        <v>234094</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>287779</v>
+        <v>290335</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1616156414190805</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1435512113562825</v>
+        <v>0.1449200499478564</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1781546545182966</v>
+        <v>0.1797369804914444</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>695835</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>676196</v>
+        <v>674519</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>717023</v>
+        <v>715648</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8664658222880977</v>
+        <v>0.8664658222880974</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8420111458252257</v>
+        <v>0.8399228645020483</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8928488463558653</v>
+        <v>0.8911368457086718</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>817</v>
@@ -5245,19 +5245,19 @@
         <v>658434</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>636769</v>
+        <v>637581</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>675748</v>
+        <v>677278</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8106204632671189</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7839480449596468</v>
+        <v>0.7849484163921412</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8319371403524437</v>
+        <v>0.8338201856513073</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1387</v>
@@ -5266,19 +5266,19 @@
         <v>1354269</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1327553</v>
+        <v>1324997</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1383449</v>
+        <v>1381238</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8383843585809195</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8218453454817031</v>
+        <v>0.8202630195085556</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8564487886437174</v>
+        <v>0.8550799500521437</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>118774</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>100151</v>
+        <v>99657</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>139348</v>
+        <v>140490</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1201712025757915</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1013294511790881</v>
+        <v>0.1008297881611279</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1409871694847079</v>
+        <v>0.1421428725125533</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>355</v>
@@ -5391,19 +5391,19 @@
         <v>231347</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>207563</v>
+        <v>209162</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>254021</v>
+        <v>255436</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2067369693335934</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1854826312495852</v>
+        <v>0.1869119233702936</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.226998976830515</v>
+        <v>0.2282636501823582</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>500</v>
@@ -5412,19 +5412,19 @@
         <v>350121</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>324845</v>
+        <v>320031</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>381505</v>
+        <v>381689</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1661378267147</v>
+        <v>0.1661378267147001</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1541438955162349</v>
+        <v>0.1518594229270867</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1810301152187954</v>
+        <v>0.181117205378241</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>869598</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>849024</v>
+        <v>847882</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>888221</v>
+        <v>888715</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8798287974242085</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8590128305152919</v>
+        <v>0.8578571274874467</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8986705488209118</v>
+        <v>0.899170211838872</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1207</v>
@@ -5462,19 +5462,19 @@
         <v>887694</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>865020</v>
+        <v>863605</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>911478</v>
+        <v>909879</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7932630306664067</v>
+        <v>0.7932630306664068</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7730010231694852</v>
+        <v>0.7717363498176418</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8145173687504149</v>
+        <v>0.8130880766297064</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2066</v>
@@ -5483,19 +5483,19 @@
         <v>1757292</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1725908</v>
+        <v>1725724</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1782568</v>
+        <v>1787382</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8338621732853</v>
+        <v>0.8338621732852999</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8189698847812047</v>
+        <v>0.8188827946217589</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8458561044837675</v>
+        <v>0.8481405770729133</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>440116</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>402863</v>
+        <v>400123</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>478413</v>
+        <v>479435</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1246938089421696</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.114139292084899</v>
+        <v>0.1133629790276453</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1355439976204805</v>
+        <v>0.1358335931707598</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1196</v>
@@ -5608,19 +5608,19 @@
         <v>734249</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>694120</v>
+        <v>695272</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>770180</v>
+        <v>777769</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1966618111813714</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1859135352263089</v>
+        <v>0.1862220758199327</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2062855535017477</v>
+        <v>0.2083180777231591</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1683</v>
@@ -5629,19 +5629,19 @@
         <v>1174366</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1122504</v>
+        <v>1118020</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1233259</v>
+        <v>1231502</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1616884266755929</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1545480778478216</v>
+        <v>0.1539307313318631</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.169797006110402</v>
+        <v>0.1695550106056338</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3089460</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3051163</v>
+        <v>3050141</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3126713</v>
+        <v>3129453</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8753061910578304</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8644560023795196</v>
+        <v>0.8641664068292403</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.885860707915101</v>
+        <v>0.8866370209723545</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4165</v>
@@ -5679,19 +5679,19 @@
         <v>2999314</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2963383</v>
+        <v>2955794</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3039443</v>
+        <v>3038291</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8033381888186285</v>
+        <v>0.8033381888186286</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7937144464982523</v>
+        <v>0.791681922276841</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8140864647736912</v>
+        <v>0.8137779241800673</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7050</v>
@@ -5700,19 +5700,19 @@
         <v>6088773</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6029880</v>
+        <v>6031637</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6140635</v>
+        <v>6145119</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8383115733244071</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8302029938895987</v>
+        <v>0.8304449893943662</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.845451922152179</v>
+        <v>0.8460692686681369</v>
       </c>
     </row>
     <row r="18">
